--- a/main/ig/StructureDefinition-as-device.xlsx
+++ b/main/ig/StructureDefinition-as-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:39:16+00:00</t>
+    <t>2025-08-01T06:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-device.xlsx
+++ b/main/ig/StructureDefinition-as-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:15:10+00:00</t>
+    <t>2025-08-11T13:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-device.xlsx
+++ b/main/ig/StructureDefinition-as-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-device.xlsx
+++ b/main/ig/StructureDefinition-as-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-device.xlsx
+++ b/main/ig/StructureDefinition-as-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>Device.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -511,7 +511,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -554,7 +554,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -999,7 +999,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1086,7 +1086,7 @@
     <t>Device.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1108,7 +1108,7 @@
     <t>Device.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DeviceDefinition)
+    <t xml:space="preserve">Reference(DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1331,7 +1331,7 @@
     <t>The availability status reason of the device.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/device-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Device.distinctIdentifier</t>
@@ -1647,7 +1647,7 @@
     <t>Device.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -1707,7 +1707,7 @@
     <t>Device.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1769,7 +1769,7 @@
     <t>Device.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-as-device.xlsx
+++ b/main/ig/StructureDefinition-as-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-device.xlsx
+++ b/main/ig/StructureDefinition-as-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-device.xlsx
+++ b/main/ig/StructureDefinition-as-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:39:47+00:00</t>
+    <t>2025-09-18T15:54:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-device.xlsx
+++ b/main/ig/StructureDefinition-as-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil générique créé à partir de Device dans le contexte de l'Annuaire Santé pour décrire les équipements matériels lourds ('EML') mis en oeuvre au sein d'un établissement.</t>
+    <t>Profil générique créé à partir de Device dans le contexte de l'Annuaire Santé pour décrire les Equipements Matériels Lourds (EML) mis en place au sein d'un établissement.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -2832,7 +2832,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>195</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>406</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>426</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>444</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>473</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
         <v>528</v>
       </c>
@@ -15062,12 +15062,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN114">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-as-device.xlsx
+++ b/main/ig/StructureDefinition-as-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-device.xlsx
+++ b/main/ig/StructureDefinition-as-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-device.xlsx
+++ b/main/ig/StructureDefinition-as-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-device.xlsx
+++ b/main/ig/StructureDefinition-as-device.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$114</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="519">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T13:03:27+00:00</t>
+    <t>2025-10-10T07:08:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -320,7 +317,156 @@
 </t>
   </si>
   <si>
-    <t>Device.meta.id</t>
+    <t>Device.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Device.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Device.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Device.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Device.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Device.extension:as-ext-authorization</t>
+  </si>
+  <si>
+    <t>as-ext-authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-authorization}
+</t>
+  </si>
+  <si>
+    <t>AS Authorization Extension</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour décrire les autorisations des activités (HealthcareService) sanitaires, sociales, médico-sociales et d'enseignement et des équipements matériels (Device) lourds autorisés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Device.extension:as-ext-authorization.id</t>
+  </si>
+  <si>
+    <t>Device.extension.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -339,17 +485,16 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Device.meta.extension</t>
+    <t>Device.extension:as-ext-authorization.extension</t>
+  </si>
+  <si>
+    <t>Device.extension.extension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
@@ -359,301 +504,10 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Device.meta.extension:as-ext-data-trace</t>
-  </si>
-  <si>
-    <t>as-ext-data-trace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace}
-</t>
-  </si>
-  <si>
-    <t>DataTrace : Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI).</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source.</t>
-  </si>
-  <si>
-    <t>Device.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Device.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Device.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Device.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Device.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Device.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Device.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Device.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Device.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Device.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Device.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Device.extension:as-ext-authorization</t>
-  </si>
-  <si>
-    <t>as-ext-authorization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-authorization}
-</t>
-  </si>
-  <si>
-    <t>AS Authorization Extension</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour décrire les autorisations des activités (HealthcareService) sanitaires, sociales, médico-sociales et d'enseignement et des équipements matériels (Device) lourds autorisés.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Device.extension:as-ext-authorization.id</t>
-  </si>
-  <si>
-    <t>Device.extension.id</t>
-  </si>
-  <si>
-    <t>Device.extension:as-ext-authorization.extension</t>
-  </si>
-  <si>
-    <t>Device.extension.extension</t>
   </si>
   <si>
     <t>Device.extension:as-ext-authorization.extension:dateAuthorization</t>
@@ -994,6 +848,9 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -1298,7 +1155,7 @@
     <t>Device.status</t>
   </si>
   <si>
-    <t>Le matériel est-il actif? active | inactive</t>
+    <t>Le matériel est-il actif ? active | inactive</t>
   </si>
   <si>
     <t>Status of the Device availability.</t>
@@ -1905,21 +1762,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2096,7 +1938,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN114"/>
+  <dimension ref="A1:AN105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2129,7 +1971,7 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="96.02734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
@@ -2268,7 +2110,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2380,7 +2222,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -2494,7 +2336,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -2606,7 +2448,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -2628,10 +2470,10 @@
         <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>100</v>
@@ -2642,7 +2484,9 @@
       <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>77</v>
@@ -2691,7 +2535,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -2703,13 +2547,13 @@
         <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>77</v>
@@ -2718,7 +2562,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -2727,14 +2571,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -2746,16 +2590,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2781,49 +2625,49 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AF6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>77</v>
@@ -2834,16 +2678,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2853,7 +2695,7 @@
         <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>77</v>
@@ -2862,15 +2704,17 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>77</v>
@@ -2919,25 +2763,25 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>77</v>
@@ -2946,23 +2790,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>77</v>
@@ -2971,19 +2815,19 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3033,25 +2877,25 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>77</v>
@@ -3060,12 +2904,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3076,7 +2920,7 @@
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>77</v>
@@ -3085,20 +2929,18 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -3135,31 +2977,29 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
@@ -3174,14 +3014,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
       </c>
@@ -3199,20 +3041,18 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -3261,20 +3101,20 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
       </c>
@@ -3288,12 +3128,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3304,7 +3144,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -3313,20 +3153,18 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -3375,25 +3213,25 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -3402,16 +3240,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3427,19 +3265,19 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3465,31 +3303,31 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3501,13 +3339,13 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -3516,14 +3354,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3532,7 +3372,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3541,20 +3381,18 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3579,31 +3417,31 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3615,10 +3453,10 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3630,12 +3468,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3652,23 +3490,21 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3717,39 +3553,39 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3760,7 +3596,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3772,17 +3608,15 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3807,43 +3641,43 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
@@ -3858,20 +3692,20 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>86</v>
@@ -3886,16 +3720,16 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3903,7 +3737,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -3945,10 +3779,10 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>86</v>
@@ -3957,13 +3791,13 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3972,23 +3806,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -4000,17 +3834,15 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -4059,25 +3891,25 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -4086,14 +3918,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4102,7 +3936,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -4114,13 +3948,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4159,17 +3993,19 @@
         <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4181,7 +4017,7 @@
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
@@ -4198,14 +4034,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4217,7 +4051,7 @@
         <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>77</v>
@@ -4226,13 +4060,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4283,25 +4117,25 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4310,12 +4144,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4326,7 +4160,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -4338,13 +4172,13 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4383,37 +4217,37 @@
         <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4422,23 +4256,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4450,16 +4284,16 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4467,7 +4301,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -4497,37 +4331,37 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4536,16 +4370,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4566,13 +4398,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4623,25 +4455,25 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4650,12 +4482,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4678,13 +4510,13 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4735,7 +4567,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4753,7 +4585,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4762,23 +4594,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4790,15 +4622,17 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4835,19 +4669,19 @@
         <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4859,13 +4693,13 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4874,12 +4708,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4887,7 +4721,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
@@ -4899,19 +4733,19 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4919,7 +4753,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>77</v>
@@ -4961,25 +4795,25 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4988,12 +4822,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5013,23 +4847,27 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="R26" t="s" s="2">
         <v>77</v>
       </c>
@@ -5073,7 +4911,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5082,16 +4920,16 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -5100,15 +4938,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>77</v>
@@ -5130,13 +4968,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5187,7 +5025,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5199,7 +5037,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -5214,12 +5052,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5242,13 +5080,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5299,7 +5137,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5317,7 +5155,7 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5326,12 +5164,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5354,13 +5192,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5399,19 +5237,19 @@
         <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5423,7 +5261,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -5438,12 +5276,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5466,16 +5304,16 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5483,7 +5321,7 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>77</v>
@@ -5525,7 +5363,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
@@ -5543,7 +5381,7 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5552,12 +5390,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5580,13 +5418,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5637,7 +5475,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5655,7 +5493,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5664,14 +5502,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5692,13 +5532,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5749,25 +5589,25 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5776,23 +5616,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5804,17 +5644,15 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5851,37 +5689,37 @@
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5890,12 +5728,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5906,7 +5744,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5915,20 +5753,18 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5965,37 +5801,37 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -6004,12 +5840,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6017,7 +5853,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -6029,29 +5865,27 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q35" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>77</v>
@@ -6093,25 +5927,25 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>253</v>
+        <v>129</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6120,16 +5954,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6150,13 +5982,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6207,25 +6039,25 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6234,12 +6066,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6247,7 +6079,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
@@ -6265,19 +6097,21 @@
         <v>100</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>77</v>
@@ -6319,10 +6153,10 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>86</v>
@@ -6337,7 +6171,7 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6346,12 +6180,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6374,13 +6208,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6419,37 +6253,37 @@
         <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6458,52 +6292,54 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>77</v>
@@ -6545,25 +6381,25 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6572,12 +6408,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6588,7 +6424,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6600,15 +6436,17 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6645,25 +6483,25 @@
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6675,24 +6513,24 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>77</v>
@@ -6714,15 +6552,17 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6771,7 +6611,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6783,27 +6623,27 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6826,13 +6666,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6883,7 +6723,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6901,7 +6741,7 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6910,23 +6750,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6938,15 +6778,17 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6983,19 +6825,19 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7007,13 +6849,13 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -7022,12 +6864,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7035,7 +6877,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>86</v>
@@ -7044,104 +6886,106 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="S44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="B45" t="s" s="2">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7161,19 +7005,23 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7197,13 +7045,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -7221,7 +7069,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7239,7 +7087,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -7248,12 +7096,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7273,33 +7121,35 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>77</v>
@@ -7335,10 +7185,10 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>86</v>
@@ -7347,13 +7197,13 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7362,12 +7212,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7378,7 +7228,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7387,18 +7237,20 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7411,7 +7263,7 @@
         <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>77</v>
@@ -7447,7 +7299,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7462,10 +7314,10 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>190</v>
+        <v>291</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7474,48 +7326,44 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J48" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K48" t="s" s="2">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7563,25 +7411,25 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7590,12 +7438,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7606,28 +7454,28 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K49" t="s" s="2">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7665,25 +7513,25 @@
         <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7695,25 +7543,23 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7734,17 +7580,15 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7793,13 +7637,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7811,21 +7655,21 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7836,7 +7680,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7845,18 +7689,20 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>101</v>
+        <v>312</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7905,50 +7751,50 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7960,17 +7806,15 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -8007,37 +7851,37 @@
         <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -8046,48 +7890,46 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>299</v>
+        <v>154</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8111,13 +7953,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -8135,25 +7977,25 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>307</v>
+        <v>150</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -8162,47 +8004,47 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>313</v>
+        <v>156</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8227,13 +8069,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8251,25 +8093,25 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>307</v>
+        <v>129</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8278,20 +8120,20 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>86</v>
@@ -8306,20 +8148,16 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8328,10 +8166,10 @@
         <v>77</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>77</v>
@@ -8367,7 +8205,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8388,22 +8226,22 @@
         <v>327</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8419,20 +8257,18 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8445,7 +8281,7 @@
         <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>77</v>
@@ -8481,7 +8317,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8496,24 +8332,24 @@
         <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL56" t="s" s="2">
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AM56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="B57" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8533,19 +8369,21 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8593,7 +8431,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8611,7 +8449,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8620,16 +8458,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8648,16 +8486,16 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8707,7 +8545,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8725,25 +8563,25 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8759,18 +8597,20 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8819,7 +8659,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8837,21 +8677,21 @@
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8862,7 +8702,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8871,21 +8711,21 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8909,13 +8749,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8933,13 +8773,13 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
@@ -8954,13 +8794,13 @@
         <v>360</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>361</v>
       </c>
@@ -8982,21 +8822,23 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>101</v>
+        <v>362</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -9021,13 +8863,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -9045,7 +8887,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>103</v>
+        <v>361</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9057,31 +8899,31 @@
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>104</v>
+        <v>367</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9100,17 +8942,15 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>107</v>
+        <v>264</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>108</v>
+        <v>370</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -9135,13 +8975,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -9159,7 +8999,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>114</v>
+        <v>369</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9171,63 +9011,61 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9275,43 +9113,43 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>190</v>
+        <v>379</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9327,16 +9165,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9387,7 +9225,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9402,28 +9240,28 @@
         <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>374</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9442,13 +9280,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9499,7 +9337,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9517,21 +9355,21 @@
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9554,18 +9392,16 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>384</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9613,7 +9449,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9631,25 +9467,25 @@
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9665,20 +9501,18 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>388</v>
+        <v>146</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9727,7 +9561,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9745,25 +9579,25 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9779,19 +9613,19 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9841,7 +9675,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9856,24 +9690,24 @@
         <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9884,7 +9718,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -9896,18 +9730,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9931,13 +9763,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9955,13 +9787,13 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
@@ -9973,7 +9805,7 @@
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -9984,10 +9816,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10001,26 +9833,24 @@
         <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>407</v>
+        <v>147</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -10045,13 +9875,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>410</v>
+        <v>77</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -10069,7 +9899,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>406</v>
+        <v>149</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10081,31 +9911,31 @@
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>412</v>
+        <v>150</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10124,15 +9954,17 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>415</v>
+        <v>154</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -10157,13 +9989,13 @@
         <v>77</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>77</v>
@@ -10181,7 +10013,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>414</v>
+        <v>158</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10193,61 +10025,63 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>420</v>
+        <v>319</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>421</v>
+        <v>320</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>422</v>
+        <v>321</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10295,53 +10129,53 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>419</v>
+        <v>322</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>424</v>
+        <v>129</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>77</v>
@@ -10350,13 +10184,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10407,10 +10241,10 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>86</v>
@@ -10422,24 +10256,24 @@
         <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10447,7 +10281,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>86</v>
@@ -10462,13 +10296,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10495,13 +10329,13 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
@@ -10519,10 +10353,10 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>86</v>
@@ -10537,21 +10371,21 @@
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10574,13 +10408,13 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10631,7 +10465,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10649,21 +10483,21 @@
         <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>440</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10686,15 +10520,17 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10743,7 +10579,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10761,21 +10597,21 @@
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10789,7 +10625,7 @@
         <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>77</v>
@@ -10798,17 +10634,15 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10833,13 +10667,11 @@
         <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>77</v>
@@ -10857,7 +10689,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10872,24 +10704,24 @@
         <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>449</v>
+        <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10912,13 +10744,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10969,7 +10801,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10996,12 +10828,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11024,13 +10856,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11081,7 +10913,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11099,7 +10931,7 @@
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -11108,16 +10940,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11136,16 +10968,16 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11195,7 +11027,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11207,13 +11039,13 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -11222,16 +11054,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11250,19 +11082,19 @@
         <v>87</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -11311,7 +11143,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11323,13 +11155,13 @@
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>
@@ -11338,16 +11170,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11366,13 +11198,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11423,7 +11255,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>86</v>
@@ -11450,12 +11282,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11463,7 +11295,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>86</v>
@@ -11478,13 +11310,13 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11511,13 +11343,13 @@
         <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
@@ -11535,10 +11367,10 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>86</v>
@@ -11553,21 +11385,21 @@
         <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11578,7 +11410,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
@@ -11590,13 +11422,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11647,13 +11479,13 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
@@ -11665,21 +11497,21 @@
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11702,17 +11534,15 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>471</v>
+        <v>147</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11761,7 +11591,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>470</v>
+        <v>149</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11773,16 +11603,16 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>449</v>
+        <v>150</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11790,24 +11620,24 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
@@ -11816,15 +11646,17 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>474</v>
+        <v>154</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -11849,11 +11681,13 @@
         <v>77</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Y86" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z86" t="s" s="2">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>77</v>
@@ -11871,25 +11705,25 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>473</v>
+        <v>158</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>477</v>
+        <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -11898,16 +11732,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11920,22 +11754,26 @@
         <v>77</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>356</v>
+        <v>131</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>479</v>
+        <v>320</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11983,7 +11821,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>478</v>
+        <v>322</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11995,13 +11833,13 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -12010,16 +11848,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12038,13 +11876,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>101</v>
+        <v>452</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>102</v>
+        <v>453</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12095,7 +11933,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>103</v>
+        <v>451</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12107,13 +11945,13 @@
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -12122,23 +11960,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>77</v>
@@ -12150,17 +11988,15 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>108</v>
+        <v>455</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -12209,75 +12045,71 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>114</v>
+        <v>454</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>365</v>
+        <v>458</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12325,25 +12157,25 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>367</v>
+        <v>457</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>77</v>
@@ -12352,23 +12184,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>457</v>
+        <v>77</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>77</v>
@@ -12380,13 +12212,13 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12437,13 +12269,13 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>77</v>
@@ -12464,12 +12296,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12492,13 +12324,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>488</v>
+        <v>147</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>489</v>
+        <v>148</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12549,7 +12381,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>487</v>
+        <v>149</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12561,31 +12393,31 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12604,15 +12436,17 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>356</v>
+        <v>131</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>491</v>
+        <v>154</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12661,7 +12495,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>490</v>
+        <v>158</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12673,13 +12507,13 @@
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -12688,44 +12522,48 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>101</v>
+        <v>320</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12773,25 +12611,25 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>103</v>
+        <v>322</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -12800,23 +12638,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
@@ -12828,17 +12666,15 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>107</v>
+        <v>264</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>108</v>
+        <v>467</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12887,25 +12723,25 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>114</v>
+        <v>466</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
@@ -12914,16 +12750,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12936,26 +12772,22 @@
         <v>77</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>107</v>
+        <v>470</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>77</v>
       </c>
@@ -13003,7 +12835,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>367</v>
+        <v>469</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13015,13 +12847,13 @@
         <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
@@ -13030,23 +12862,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>457</v>
+        <v>77</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>77</v>
@@ -13058,13 +12890,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13115,13 +12947,13 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>77</v>
@@ -13142,12 +12974,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13170,16 +13002,18 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
       </c>
@@ -13227,7 +13061,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13245,21 +13079,21 @@
         <v>77</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>77</v>
+        <v>481</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>373</v>
+        <v>482</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13267,7 +13101,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>86</v>
@@ -13282,13 +13116,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>100</v>
+        <v>484</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13339,10 +13173,10 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>86</v>
@@ -13357,21 +13191,21 @@
         <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13394,15 +13228,17 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>356</v>
+        <v>490</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -13451,7 +13287,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13469,21 +13305,21 @@
         <v>77</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>77</v>
+        <v>494</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13506,16 +13342,18 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>100</v>
+        <v>496</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>101</v>
+        <v>497</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>102</v>
+        <v>498</v>
       </c>
       <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
       </c>
@@ -13563,7 +13401,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>103</v>
+        <v>495</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13575,38 +13413,38 @@
         <v>77</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>104</v>
+        <v>500</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>77</v>
+        <v>501</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>77</v>
@@ -13618,16 +13456,16 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>108</v>
+        <v>503</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>109</v>
+        <v>504</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>110</v>
+        <v>505</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13677,43 +13515,43 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>114</v>
+        <v>502</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>104</v>
+        <v>506</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>77</v>
+        <v>501</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -13726,26 +13564,22 @@
         <v>77</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>107</v>
+        <v>508</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>365</v>
+        <v>509</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>77</v>
       </c>
@@ -13793,7 +13627,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>367</v>
+        <v>507</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13805,13 +13639,13 @@
         <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>190</v>
+        <v>511</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>77</v>
@@ -13820,12 +13654,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13833,10 +13667,10 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>77</v>
@@ -13845,16 +13679,16 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13905,13 +13739,13 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>77</v>
@@ -13923,7 +13757,7 @@
         <v>77</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>77</v>
@@ -13932,12 +13766,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13948,7 +13782,7 @@
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>77</v>
@@ -13960,13 +13794,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14017,13 +13851,13 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>77</v>
@@ -14044,1041 +13878,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="P110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="O111" s="2"/>
-      <c r="P111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN114">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="27">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI113">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>